--- a/INTLINE/data/193/ABS/87310011.xlsx
+++ b/INTLINE/data/193/ABS/87310011.xlsx
@@ -12,62 +12,62 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A117876976R">Data1!$J$1:$J$10,Data1!$J$437:$J$804</definedName>
-    <definedName name="A117876976R_Data">Data1!$J$437:$J$804</definedName>
-    <definedName name="A117876976R_Latest">Data1!$J$804</definedName>
-    <definedName name="A118053232K">Data1!$K$1:$K$10,Data1!$K$497:$K$804</definedName>
-    <definedName name="A118053232K_Data">Data1!$K$497:$K$804</definedName>
-    <definedName name="A118053232K_Latest">Data1!$K$804</definedName>
-    <definedName name="A118405744K">Data1!$P$1:$P$10,Data1!$P$437:$P$804</definedName>
-    <definedName name="A118405744K_Data">Data1!$P$437:$P$804</definedName>
-    <definedName name="A118405744K_Latest">Data1!$P$804</definedName>
-    <definedName name="A118582000C">Data1!$Q$1:$Q$10,Data1!$Q$497:$Q$804</definedName>
-    <definedName name="A118582000C_Data">Data1!$Q$497:$Q$804</definedName>
-    <definedName name="A118582000C_Latest">Data1!$Q$804</definedName>
-    <definedName name="A118934512C">Data1!$D$1:$D$10,Data1!$D$437:$D$804</definedName>
-    <definedName name="A118934512C_Data">Data1!$D$437:$D$804</definedName>
-    <definedName name="A118934512C_Latest">Data1!$D$804</definedName>
-    <definedName name="A119110768A">Data1!$E$1:$E$10,Data1!$E$497:$E$804</definedName>
-    <definedName name="A119110768A_Data">Data1!$E$497:$E$804</definedName>
-    <definedName name="A119110768A_Latest">Data1!$E$804</definedName>
-    <definedName name="A418344C">Data1!$B$1:$B$10,Data1!$B$11:$B$804</definedName>
-    <definedName name="A418344C_Data">Data1!$B$11:$B$804</definedName>
-    <definedName name="A418344C_Latest">Data1!$B$804</definedName>
-    <definedName name="A418375V">Data1!$H$1:$H$10,Data1!$H$185:$H$804</definedName>
-    <definedName name="A418375V_Data">Data1!$H$185:$H$804</definedName>
-    <definedName name="A418375V_Latest">Data1!$H$804</definedName>
-    <definedName name="A418403T">Data1!$N$1:$N$10,Data1!$N$11:$N$804</definedName>
-    <definedName name="A418403T_Data">Data1!$N$11:$N$804</definedName>
-    <definedName name="A418403T_Latest">Data1!$N$804</definedName>
-    <definedName name="A419084L">Data1!$C$1:$C$10,Data1!$C$185:$C$804</definedName>
-    <definedName name="A419084L_Data">Data1!$C$185:$C$804</definedName>
-    <definedName name="A419084L_Latest">Data1!$C$804</definedName>
-    <definedName name="A419111J">Data1!$I$1:$I$10,Data1!$I$185:$I$804</definedName>
-    <definedName name="A419111J_Data">Data1!$I$185:$I$804</definedName>
-    <definedName name="A419111J_Latest">Data1!$I$804</definedName>
-    <definedName name="A419138J">Data1!$O$1:$O$10,Data1!$O$185:$O$804</definedName>
-    <definedName name="A419138J_Data">Data1!$O$185:$O$804</definedName>
-    <definedName name="A419138J_Latest">Data1!$O$804</definedName>
-    <definedName name="A420543K">Data1!$F$1:$F$10,Data1!$F$341:$F$804</definedName>
-    <definedName name="A420543K_Data">Data1!$F$341:$F$804</definedName>
-    <definedName name="A420543K_Latest">Data1!$F$804</definedName>
-    <definedName name="A420569J">Data1!$L$1:$L$10,Data1!$L$353:$L$804</definedName>
-    <definedName name="A420569J_Data">Data1!$L$353:$L$804</definedName>
-    <definedName name="A420569J_Latest">Data1!$L$804</definedName>
-    <definedName name="A420593J">Data1!$R$1:$R$10,Data1!$R$341:$R$804</definedName>
-    <definedName name="A420593J_Data">Data1!$R$341:$R$804</definedName>
-    <definedName name="A420593J_Latest">Data1!$R$804</definedName>
-    <definedName name="A422000A">Data1!$G$1:$G$10,Data1!$G$341:$G$804</definedName>
-    <definedName name="A422000A_Data">Data1!$G$341:$G$804</definedName>
-    <definedName name="A422000A_Latest">Data1!$G$804</definedName>
-    <definedName name="A422032V">Data1!$M$1:$M$10,Data1!$M$341:$M$804</definedName>
-    <definedName name="A422032V_Data">Data1!$M$341:$M$804</definedName>
-    <definedName name="A422032V_Latest">Data1!$M$804</definedName>
-    <definedName name="A422064L">Data1!$S$1:$S$10,Data1!$S$341:$S$804</definedName>
-    <definedName name="A422064L_Data">Data1!$S$341:$S$804</definedName>
-    <definedName name="A422064L_Latest">Data1!$S$804</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$804</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$804</definedName>
+    <definedName name="A117876976R">Data1!$J$1:$J$10,Data1!$J$437:$J$806</definedName>
+    <definedName name="A117876976R_Data">Data1!$J$437:$J$806</definedName>
+    <definedName name="A117876976R_Latest">Data1!$J$806</definedName>
+    <definedName name="A118053232K">Data1!$K$1:$K$10,Data1!$K$497:$K$806</definedName>
+    <definedName name="A118053232K_Data">Data1!$K$497:$K$806</definedName>
+    <definedName name="A118053232K_Latest">Data1!$K$806</definedName>
+    <definedName name="A118405744K">Data1!$P$1:$P$10,Data1!$P$437:$P$806</definedName>
+    <definedName name="A118405744K_Data">Data1!$P$437:$P$806</definedName>
+    <definedName name="A118405744K_Latest">Data1!$P$806</definedName>
+    <definedName name="A118582000C">Data1!$Q$1:$Q$10,Data1!$Q$497:$Q$806</definedName>
+    <definedName name="A118582000C_Data">Data1!$Q$497:$Q$806</definedName>
+    <definedName name="A118582000C_Latest">Data1!$Q$806</definedName>
+    <definedName name="A118934512C">Data1!$D$1:$D$10,Data1!$D$437:$D$806</definedName>
+    <definedName name="A118934512C_Data">Data1!$D$437:$D$806</definedName>
+    <definedName name="A118934512C_Latest">Data1!$D$806</definedName>
+    <definedName name="A119110768A">Data1!$E$1:$E$10,Data1!$E$497:$E$806</definedName>
+    <definedName name="A119110768A_Data">Data1!$E$497:$E$806</definedName>
+    <definedName name="A119110768A_Latest">Data1!$E$806</definedName>
+    <definedName name="A418344C">Data1!$B$1:$B$10,Data1!$B$11:$B$806</definedName>
+    <definedName name="A418344C_Data">Data1!$B$11:$B$806</definedName>
+    <definedName name="A418344C_Latest">Data1!$B$806</definedName>
+    <definedName name="A418375V">Data1!$H$1:$H$10,Data1!$H$185:$H$806</definedName>
+    <definedName name="A418375V_Data">Data1!$H$185:$H$806</definedName>
+    <definedName name="A418375V_Latest">Data1!$H$806</definedName>
+    <definedName name="A418403T">Data1!$N$1:$N$10,Data1!$N$11:$N$806</definedName>
+    <definedName name="A418403T_Data">Data1!$N$11:$N$806</definedName>
+    <definedName name="A418403T_Latest">Data1!$N$806</definedName>
+    <definedName name="A419084L">Data1!$C$1:$C$10,Data1!$C$185:$C$806</definedName>
+    <definedName name="A419084L_Data">Data1!$C$185:$C$806</definedName>
+    <definedName name="A419084L_Latest">Data1!$C$806</definedName>
+    <definedName name="A419111J">Data1!$I$1:$I$10,Data1!$I$185:$I$806</definedName>
+    <definedName name="A419111J_Data">Data1!$I$185:$I$806</definedName>
+    <definedName name="A419111J_Latest">Data1!$I$806</definedName>
+    <definedName name="A419138J">Data1!$O$1:$O$10,Data1!$O$185:$O$806</definedName>
+    <definedName name="A419138J_Data">Data1!$O$185:$O$806</definedName>
+    <definedName name="A419138J_Latest">Data1!$O$806</definedName>
+    <definedName name="A420543K">Data1!$F$1:$F$10,Data1!$F$341:$F$806</definedName>
+    <definedName name="A420543K_Data">Data1!$F$341:$F$806</definedName>
+    <definedName name="A420543K_Latest">Data1!$F$806</definedName>
+    <definedName name="A420569J">Data1!$L$1:$L$10,Data1!$L$353:$L$806</definedName>
+    <definedName name="A420569J_Data">Data1!$L$353:$L$806</definedName>
+    <definedName name="A420569J_Latest">Data1!$L$806</definedName>
+    <definedName name="A420593J">Data1!$R$1:$R$10,Data1!$R$341:$R$806</definedName>
+    <definedName name="A420593J_Data">Data1!$R$341:$R$806</definedName>
+    <definedName name="A420593J_Latest">Data1!$R$806</definedName>
+    <definedName name="A422000A">Data1!$G$1:$G$10,Data1!$G$341:$G$806</definedName>
+    <definedName name="A422000A_Data">Data1!$G$341:$G$806</definedName>
+    <definedName name="A422000A_Latest">Data1!$G$806</definedName>
+    <definedName name="A422032V">Data1!$M$1:$M$10,Data1!$M$341:$M$806</definedName>
+    <definedName name="A422032V_Data">Data1!$M$341:$M$806</definedName>
+    <definedName name="A422032V_Latest">Data1!$M$806</definedName>
+    <definedName name="A422064L">Data1!$S$1:$S$10,Data1!$S$341:$S$806</definedName>
+    <definedName name="A422064L_Data">Data1!$S$341:$S$806</definedName>
+    <definedName name="A422064L_Latest">Data1!$S$806</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$806</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$806</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1160,10 +1160,10 @@
         <v>20455</v>
       </c>
       <c r="G12" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H12" s="10">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>27</v>
@@ -1192,10 +1192,10 @@
         <v>25750</v>
       </c>
       <c r="G13" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H13" s="10">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>27</v>
@@ -1224,10 +1224,10 @@
         <v>33420</v>
       </c>
       <c r="G14" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H14" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>27</v>
@@ -1256,10 +1256,10 @@
         <v>35247</v>
       </c>
       <c r="G15" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H15" s="10">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>27</v>
@@ -1288,10 +1288,10 @@
         <v>30498</v>
       </c>
       <c r="G16" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H16" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>27</v>
@@ -1320,10 +1320,10 @@
         <v>30498</v>
       </c>
       <c r="G17" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H17" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>27</v>
@@ -1352,10 +1352,10 @@
         <v>25750</v>
       </c>
       <c r="G18" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H18" s="10">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>27</v>
@@ -1384,10 +1384,10 @@
         <v>25750</v>
       </c>
       <c r="G19" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H19" s="10">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>27</v>
@@ -1416,10 +1416,10 @@
         <v>33420</v>
       </c>
       <c r="G20" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H20" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>27</v>
@@ -1448,10 +1448,10 @@
         <v>35247</v>
       </c>
       <c r="G21" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H21" s="10">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>27</v>
@@ -1480,10 +1480,10 @@
         <v>30864</v>
       </c>
       <c r="G22" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H22" s="10">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>27</v>
@@ -1512,10 +1512,10 @@
         <v>30498</v>
       </c>
       <c r="G23" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H23" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>27</v>
@@ -1544,10 +1544,10 @@
         <v>20455</v>
       </c>
       <c r="G24" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H24" s="10">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>27</v>
@@ -1576,10 +1576,10 @@
         <v>25750</v>
       </c>
       <c r="G25" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H25" s="10">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>27</v>
@@ -1608,10 +1608,10 @@
         <v>33420</v>
       </c>
       <c r="G26" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H26" s="10">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>27</v>
@@ -1640,10 +1640,10 @@
         <v>35247</v>
       </c>
       <c r="G27" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H27" s="10">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>27</v>
@@ -1672,10 +1672,10 @@
         <v>30498</v>
       </c>
       <c r="G28" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H28" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>27</v>
@@ -1704,10 +1704,10 @@
         <v>30498</v>
       </c>
       <c r="G29" s="9">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H29" s="10">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>27</v>
@@ -1760,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S804"/>
+  <dimension ref="A1:S806"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -2189,58 +2189,58 @@
         <v>24</v>
       </c>
       <c r="B8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="D8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="E8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="F8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="G8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="H8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="I8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="J8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="K8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="L8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="M8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="N8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="O8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="P8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="Q8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="R8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="S8" s="6">
-        <v>44593</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -2248,58 +2248,58 @@
         <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C9" s="1">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E9" s="1">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H9" s="1">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I9" s="1">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K9" s="1">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L9" s="1">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N9" s="1">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="O9" s="1">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="P9" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="1">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="R9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="S9" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -31760,10 +31760,10 @@
         <v>44013</v>
       </c>
       <c r="B785" s="8">
-        <v>9877</v>
+        <v>9931</v>
       </c>
       <c r="C785" s="8">
-        <v>5456</v>
+        <v>5910</v>
       </c>
       <c r="D785" s="8">
         <v>53</v>
@@ -31775,7 +31775,7 @@
         <v>7</v>
       </c>
       <c r="G785" s="8">
-        <v>15404</v>
+        <v>15912</v>
       </c>
       <c r="H785" s="8">
         <v>137</v>
@@ -31796,10 +31796,10 @@
         <v>339</v>
       </c>
       <c r="N785" s="8">
-        <v>10014</v>
+        <v>10068</v>
       </c>
       <c r="O785" s="8">
-        <v>5658</v>
+        <v>6112</v>
       </c>
       <c r="P785" s="8">
         <v>53</v>
@@ -31811,7 +31811,7 @@
         <v>7</v>
       </c>
       <c r="S785" s="8">
-        <v>15743</v>
+        <v>16251</v>
       </c>
     </row>
     <row r="786" spans="1:19" x14ac:dyDescent="0.2">
@@ -31819,10 +31819,10 @@
         <v>44044</v>
       </c>
       <c r="B786" s="8">
-        <v>9630</v>
+        <v>9613</v>
       </c>
       <c r="C786" s="8">
-        <v>4341</v>
+        <v>4362</v>
       </c>
       <c r="D786" s="8">
         <v>41</v>
@@ -31834,7 +31834,7 @@
         <v>7</v>
       </c>
       <c r="G786" s="8">
-        <v>14047</v>
+        <v>14051</v>
       </c>
       <c r="H786" s="8">
         <v>93</v>
@@ -31855,10 +31855,10 @@
         <v>178</v>
       </c>
       <c r="N786" s="8">
-        <v>9723</v>
+        <v>9706</v>
       </c>
       <c r="O786" s="8">
-        <v>4425</v>
+        <v>4446</v>
       </c>
       <c r="P786" s="8">
         <v>41</v>
@@ -31870,7 +31870,7 @@
         <v>7</v>
       </c>
       <c r="S786" s="8">
-        <v>14225</v>
+        <v>14229</v>
       </c>
     </row>
     <row r="787" spans="1:19" x14ac:dyDescent="0.2">
@@ -31878,10 +31878,10 @@
         <v>44075</v>
       </c>
       <c r="B787" s="8">
-        <v>11088</v>
+        <v>11061</v>
       </c>
       <c r="C787" s="8">
-        <v>5261</v>
+        <v>5291</v>
       </c>
       <c r="D787" s="8">
         <v>54</v>
@@ -31893,7 +31893,7 @@
         <v>19</v>
       </c>
       <c r="G787" s="8">
-        <v>16433</v>
+        <v>16436</v>
       </c>
       <c r="H787" s="8">
         <v>192</v>
@@ -31914,10 +31914,10 @@
         <v>356</v>
       </c>
       <c r="N787" s="8">
-        <v>11280</v>
+        <v>11253</v>
       </c>
       <c r="O787" s="8">
-        <v>5421</v>
+        <v>5451</v>
       </c>
       <c r="P787" s="8">
         <v>54</v>
@@ -31929,7 +31929,7 @@
         <v>23</v>
       </c>
       <c r="S787" s="8">
-        <v>16789</v>
+        <v>16792</v>
       </c>
     </row>
     <row r="788" spans="1:19" x14ac:dyDescent="0.2">
@@ -31937,10 +31937,10 @@
         <v>44105</v>
       </c>
       <c r="B788" s="8">
-        <v>11772</v>
+        <v>11755</v>
       </c>
       <c r="C788" s="8">
-        <v>6029</v>
+        <v>6050</v>
       </c>
       <c r="D788" s="8">
         <v>48</v>
@@ -31952,7 +31952,7 @@
         <v>18</v>
       </c>
       <c r="G788" s="8">
-        <v>17878</v>
+        <v>17882</v>
       </c>
       <c r="H788" s="8">
         <v>201</v>
@@ -31973,10 +31973,10 @@
         <v>325</v>
       </c>
       <c r="N788" s="8">
-        <v>11973</v>
+        <v>11956</v>
       </c>
       <c r="O788" s="8">
-        <v>6153</v>
+        <v>6174</v>
       </c>
       <c r="P788" s="8">
         <v>48</v>
@@ -31988,7 +31988,7 @@
         <v>18</v>
       </c>
       <c r="S788" s="8">
-        <v>18203</v>
+        <v>18207</v>
       </c>
     </row>
     <row r="789" spans="1:19" x14ac:dyDescent="0.2">
@@ -31996,10 +31996,10 @@
         <v>44136</v>
       </c>
       <c r="B789" s="8">
-        <v>12111</v>
+        <v>12107</v>
       </c>
       <c r="C789" s="8">
-        <v>5700</v>
+        <v>5706</v>
       </c>
       <c r="D789" s="8">
         <v>49</v>
@@ -32011,7 +32011,7 @@
         <v>9</v>
       </c>
       <c r="G789" s="8">
-        <v>17892</v>
+        <v>17894</v>
       </c>
       <c r="H789" s="8">
         <v>146</v>
@@ -32032,10 +32032,10 @@
         <v>333</v>
       </c>
       <c r="N789" s="8">
-        <v>12257</v>
+        <v>12253</v>
       </c>
       <c r="O789" s="8">
-        <v>5887</v>
+        <v>5893</v>
       </c>
       <c r="P789" s="8">
         <v>49</v>
@@ -32047,7 +32047,7 @@
         <v>9</v>
       </c>
       <c r="S789" s="8">
-        <v>18225</v>
+        <v>18227</v>
       </c>
     </row>
     <row r="790" spans="1:19" x14ac:dyDescent="0.2">
@@ -32055,10 +32055,10 @@
         <v>44166</v>
       </c>
       <c r="B790" s="8">
-        <v>11872</v>
+        <v>11891</v>
       </c>
       <c r="C790" s="8">
-        <v>5117</v>
+        <v>5301</v>
       </c>
       <c r="D790" s="8">
         <v>52</v>
@@ -32070,7 +32070,7 @@
         <v>7</v>
       </c>
       <c r="G790" s="8">
-        <v>17054</v>
+        <v>17257</v>
       </c>
       <c r="H790" s="8">
         <v>130</v>
@@ -32091,10 +32091,10 @@
         <v>236</v>
       </c>
       <c r="N790" s="8">
-        <v>12002</v>
+        <v>12021</v>
       </c>
       <c r="O790" s="8">
-        <v>5223</v>
+        <v>5407</v>
       </c>
       <c r="P790" s="8">
         <v>52</v>
@@ -32106,7 +32106,7 @@
         <v>7</v>
       </c>
       <c r="S790" s="8">
-        <v>17290</v>
+        <v>17493</v>
       </c>
     </row>
     <row r="791" spans="1:19" x14ac:dyDescent="0.2">
@@ -32114,10 +32114,10 @@
         <v>44197</v>
       </c>
       <c r="B791" s="8">
-        <v>9102</v>
+        <v>9081</v>
       </c>
       <c r="C791" s="8">
-        <v>3822</v>
+        <v>3846</v>
       </c>
       <c r="D791" s="8">
         <v>24</v>
@@ -32129,7 +32129,7 @@
         <v>5</v>
       </c>
       <c r="G791" s="8">
-        <v>12980</v>
+        <v>12983</v>
       </c>
       <c r="H791" s="8">
         <v>191</v>
@@ -32150,10 +32150,10 @@
         <v>295</v>
       </c>
       <c r="N791" s="8">
-        <v>9293</v>
+        <v>9272</v>
       </c>
       <c r="O791" s="8">
-        <v>3926</v>
+        <v>3950</v>
       </c>
       <c r="P791" s="8">
         <v>24</v>
@@ -32165,7 +32165,7 @@
         <v>5</v>
       </c>
       <c r="S791" s="8">
-        <v>13275</v>
+        <v>13278</v>
       </c>
     </row>
     <row r="792" spans="1:19" x14ac:dyDescent="0.2">
@@ -32173,10 +32173,10 @@
         <v>44228</v>
       </c>
       <c r="B792" s="8">
-        <v>13961</v>
+        <v>13950</v>
       </c>
       <c r="C792" s="8">
-        <v>5407</v>
+        <v>5421</v>
       </c>
       <c r="D792" s="8">
         <v>43</v>
@@ -32188,7 +32188,7 @@
         <v>8</v>
       </c>
       <c r="G792" s="8">
-        <v>19430</v>
+        <v>19433</v>
       </c>
       <c r="H792" s="8">
         <v>134</v>
@@ -32209,10 +32209,10 @@
         <v>416</v>
       </c>
       <c r="N792" s="8">
-        <v>14095</v>
+        <v>14084</v>
       </c>
       <c r="O792" s="8">
-        <v>5689</v>
+        <v>5703</v>
       </c>
       <c r="P792" s="8">
         <v>43</v>
@@ -32224,7 +32224,7 @@
         <v>8</v>
       </c>
       <c r="S792" s="8">
-        <v>19846</v>
+        <v>19849</v>
       </c>
     </row>
     <row r="793" spans="1:19" x14ac:dyDescent="0.2">
@@ -32232,10 +32232,10 @@
         <v>44256</v>
       </c>
       <c r="B793" s="8">
-        <v>16018</v>
+        <v>16002</v>
       </c>
       <c r="C793" s="8">
-        <v>8468</v>
+        <v>8487</v>
       </c>
       <c r="D793" s="8">
         <v>83</v>
@@ -32247,7 +32247,7 @@
         <v>16</v>
       </c>
       <c r="G793" s="8">
-        <v>24612</v>
+        <v>24615</v>
       </c>
       <c r="H793" s="8">
         <v>272</v>
@@ -32268,10 +32268,10 @@
         <v>478</v>
       </c>
       <c r="N793" s="8">
-        <v>16290</v>
+        <v>16274</v>
       </c>
       <c r="O793" s="8">
-        <v>8674</v>
+        <v>8693</v>
       </c>
       <c r="P793" s="8">
         <v>83</v>
@@ -32283,7 +32283,7 @@
         <v>16</v>
       </c>
       <c r="S793" s="8">
-        <v>25090</v>
+        <v>25093</v>
       </c>
     </row>
     <row r="794" spans="1:19" x14ac:dyDescent="0.2">
@@ -32291,10 +32291,10 @@
         <v>44287</v>
       </c>
       <c r="B794" s="8">
-        <v>13987</v>
+        <v>13936</v>
       </c>
       <c r="C794" s="8">
-        <v>7036</v>
+        <v>7082</v>
       </c>
       <c r="D794" s="8">
         <v>44</v>
@@ -32306,7 +32306,7 @@
         <v>7</v>
       </c>
       <c r="G794" s="8">
-        <v>21091</v>
+        <v>21086</v>
       </c>
       <c r="H794" s="8">
         <v>85</v>
@@ -32327,10 +32327,10 @@
         <v>239</v>
       </c>
       <c r="N794" s="8">
-        <v>14072</v>
+        <v>14021</v>
       </c>
       <c r="O794" s="8">
-        <v>7190</v>
+        <v>7236</v>
       </c>
       <c r="P794" s="8">
         <v>44</v>
@@ -32342,7 +32342,7 @@
         <v>7</v>
       </c>
       <c r="S794" s="8">
-        <v>21330</v>
+        <v>21325</v>
       </c>
     </row>
     <row r="795" spans="1:19" x14ac:dyDescent="0.2">
@@ -32350,10 +32350,10 @@
         <v>44317</v>
       </c>
       <c r="B795" s="8">
-        <v>14056</v>
+        <v>14025</v>
       </c>
       <c r="C795" s="8">
-        <v>6891</v>
+        <v>6917</v>
       </c>
       <c r="D795" s="8">
         <v>33</v>
@@ -32365,7 +32365,7 @@
         <v>11</v>
       </c>
       <c r="G795" s="8">
-        <v>21024</v>
+        <v>21019</v>
       </c>
       <c r="H795" s="8">
         <v>128</v>
@@ -32386,10 +32386,10 @@
         <v>276</v>
       </c>
       <c r="N795" s="8">
-        <v>14184</v>
+        <v>14153</v>
       </c>
       <c r="O795" s="8">
-        <v>7039</v>
+        <v>7065</v>
       </c>
       <c r="P795" s="8">
         <v>33</v>
@@ -32401,7 +32401,7 @@
         <v>11</v>
       </c>
       <c r="S795" s="8">
-        <v>21300</v>
+        <v>21295</v>
       </c>
     </row>
     <row r="796" spans="1:19" x14ac:dyDescent="0.2">
@@ -32409,10 +32409,10 @@
         <v>44348</v>
       </c>
       <c r="B796" s="8">
-        <v>13338</v>
+        <v>13300</v>
       </c>
       <c r="C796" s="8">
-        <v>6356</v>
+        <v>6402</v>
       </c>
       <c r="D796" s="8">
         <v>35</v>
@@ -32424,7 +32424,7 @@
         <v>8</v>
       </c>
       <c r="G796" s="8">
-        <v>19750</v>
+        <v>19758</v>
       </c>
       <c r="H796" s="8">
         <v>132</v>
@@ -32445,10 +32445,10 @@
         <v>431</v>
       </c>
       <c r="N796" s="8">
-        <v>13470</v>
+        <v>13432</v>
       </c>
       <c r="O796" s="8">
-        <v>6655</v>
+        <v>6701</v>
       </c>
       <c r="P796" s="8">
         <v>35</v>
@@ -32460,7 +32460,7 @@
         <v>8</v>
       </c>
       <c r="S796" s="8">
-        <v>20181</v>
+        <v>20189</v>
       </c>
     </row>
     <row r="797" spans="1:19" x14ac:dyDescent="0.2">
@@ -32468,10 +32468,10 @@
         <v>44378</v>
       </c>
       <c r="B797" s="8">
-        <v>12266</v>
+        <v>12319</v>
       </c>
       <c r="C797" s="8">
-        <v>6422</v>
+        <v>6452</v>
       </c>
       <c r="D797" s="8">
         <v>30</v>
@@ -32483,7 +32483,7 @@
         <v>15</v>
       </c>
       <c r="G797" s="8">
-        <v>18767</v>
+        <v>18850</v>
       </c>
       <c r="H797" s="8">
         <v>104</v>
@@ -32504,10 +32504,10 @@
         <v>288</v>
       </c>
       <c r="N797" s="8">
-        <v>12370</v>
+        <v>12423</v>
       </c>
       <c r="O797" s="8">
-        <v>6606</v>
+        <v>6636</v>
       </c>
       <c r="P797" s="8">
         <v>30</v>
@@ -32519,7 +32519,7 @@
         <v>15</v>
       </c>
       <c r="S797" s="8">
-        <v>19055</v>
+        <v>19138</v>
       </c>
     </row>
     <row r="798" spans="1:19" x14ac:dyDescent="0.2">
@@ -32527,10 +32527,10 @@
         <v>44409</v>
       </c>
       <c r="B798" s="8">
-        <v>12661</v>
+        <v>12615</v>
       </c>
       <c r="C798" s="8">
-        <v>6577</v>
+        <v>6645</v>
       </c>
       <c r="D798" s="8">
         <v>41</v>
@@ -32542,7 +32542,7 @@
         <v>5</v>
       </c>
       <c r="G798" s="8">
-        <v>19297</v>
+        <v>19319</v>
       </c>
       <c r="H798" s="8">
         <v>152</v>
@@ -32563,10 +32563,10 @@
         <v>261</v>
       </c>
       <c r="N798" s="8">
-        <v>12813</v>
+        <v>12767</v>
       </c>
       <c r="O798" s="8">
-        <v>6685</v>
+        <v>6753</v>
       </c>
       <c r="P798" s="8">
         <v>42</v>
@@ -32578,7 +32578,7 @@
         <v>5</v>
       </c>
       <c r="S798" s="8">
-        <v>19558</v>
+        <v>19580</v>
       </c>
     </row>
     <row r="799" spans="1:19" x14ac:dyDescent="0.2">
@@ -32586,22 +32586,22 @@
         <v>44440</v>
       </c>
       <c r="B799" s="8">
-        <v>11137</v>
+        <v>11107</v>
       </c>
       <c r="C799" s="8">
-        <v>7901</v>
+        <v>8184</v>
       </c>
       <c r="D799" s="8">
         <v>30</v>
       </c>
       <c r="E799" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F799" s="8">
         <v>21</v>
       </c>
       <c r="G799" s="8">
-        <v>19105</v>
+        <v>19357</v>
       </c>
       <c r="H799" s="8">
         <v>81</v>
@@ -32622,22 +32622,22 @@
         <v>196</v>
       </c>
       <c r="N799" s="8">
-        <v>11218</v>
+        <v>11188</v>
       </c>
       <c r="O799" s="8">
-        <v>8016</v>
+        <v>8299</v>
       </c>
       <c r="P799" s="8">
         <v>30</v>
       </c>
       <c r="Q799" s="8">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R799" s="8">
         <v>21</v>
       </c>
       <c r="S799" s="8">
-        <v>19301</v>
+        <v>19553</v>
       </c>
     </row>
     <row r="800" spans="1:19" x14ac:dyDescent="0.2">
@@ -32645,25 +32645,25 @@
         <v>44470</v>
       </c>
       <c r="B800" s="8">
-        <v>10973</v>
+        <v>10975</v>
       </c>
       <c r="C800" s="8">
-        <v>5067</v>
+        <v>5130</v>
       </c>
       <c r="D800" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E800" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F800" s="8">
         <v>13</v>
       </c>
       <c r="G800" s="8">
-        <v>16104</v>
+        <v>16168</v>
       </c>
       <c r="H800" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I800" s="8">
         <v>202</v>
@@ -32678,25 +32678,25 @@
         <v>0</v>
       </c>
       <c r="M800" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N800" s="8">
-        <v>11084</v>
+        <v>11087</v>
       </c>
       <c r="O800" s="8">
-        <v>5269</v>
+        <v>5332</v>
       </c>
       <c r="P800" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q800" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R800" s="8">
         <v>13</v>
       </c>
       <c r="S800" s="8">
-        <v>16419</v>
+        <v>16484</v>
       </c>
     </row>
     <row r="801" spans="1:19" x14ac:dyDescent="0.2">
@@ -32704,10 +32704,10 @@
         <v>44501</v>
       </c>
       <c r="B801" s="8">
-        <v>11348</v>
+        <v>11351</v>
       </c>
       <c r="C801" s="8">
-        <v>5426</v>
+        <v>5458</v>
       </c>
       <c r="D801" s="8">
         <v>35</v>
@@ -32719,13 +32719,13 @@
         <v>4</v>
       </c>
       <c r="G801" s="8">
-        <v>16828</v>
+        <v>16863</v>
       </c>
       <c r="H801" s="8">
         <v>119</v>
       </c>
       <c r="I801" s="8">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J801" s="8">
         <v>0</v>
@@ -32737,13 +32737,13 @@
         <v>0</v>
       </c>
       <c r="M801" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="N801" s="8">
-        <v>11467</v>
+        <v>11470</v>
       </c>
       <c r="O801" s="8">
-        <v>5521</v>
+        <v>5549</v>
       </c>
       <c r="P801" s="8">
         <v>35</v>
@@ -32755,7 +32755,7 @@
         <v>4</v>
       </c>
       <c r="S801" s="8">
-        <v>17042</v>
+        <v>17073</v>
       </c>
     </row>
     <row r="802" spans="1:19" x14ac:dyDescent="0.2">
@@ -32763,10 +32763,10 @@
         <v>44531</v>
       </c>
       <c r="B802" s="8">
-        <v>9169</v>
+        <v>9012</v>
       </c>
       <c r="C802" s="8">
-        <v>6701</v>
+        <v>6763</v>
       </c>
       <c r="D802" s="8">
         <v>96</v>
@@ -32775,13 +32775,13 @@
         <v>18</v>
       </c>
       <c r="F802" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G802" s="8">
-        <v>15988</v>
+        <v>15894</v>
       </c>
       <c r="H802" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I802" s="8">
         <v>72</v>
@@ -32796,13 +32796,13 @@
         <v>0</v>
       </c>
       <c r="M802" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N802" s="8">
-        <v>9340</v>
+        <v>9184</v>
       </c>
       <c r="O802" s="8">
-        <v>6773</v>
+        <v>6835</v>
       </c>
       <c r="P802" s="8">
         <v>96</v>
@@ -32811,10 +32811,10 @@
         <v>18</v>
       </c>
       <c r="R802" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S802" s="8">
-        <v>16231</v>
+        <v>16138</v>
       </c>
     </row>
     <row r="803" spans="1:19" x14ac:dyDescent="0.2">
@@ -32822,10 +32822,10 @@
         <v>44562</v>
       </c>
       <c r="B803" s="8">
-        <v>6446</v>
+        <v>6617</v>
       </c>
       <c r="C803" s="8">
-        <v>3417</v>
+        <v>3557</v>
       </c>
       <c r="D803" s="8">
         <v>29</v>
@@ -32837,7 +32837,7 @@
         <v>4</v>
       </c>
       <c r="G803" s="8">
-        <v>9909</v>
+        <v>10220</v>
       </c>
       <c r="H803" s="8">
         <v>123</v>
@@ -32858,10 +32858,10 @@
         <v>161</v>
       </c>
       <c r="N803" s="8">
-        <v>6569</v>
+        <v>6740</v>
       </c>
       <c r="O803" s="8">
-        <v>3455</v>
+        <v>3595</v>
       </c>
       <c r="P803" s="8">
         <v>29</v>
@@ -32873,7 +32873,7 @@
         <v>4</v>
       </c>
       <c r="S803" s="8">
-        <v>10070</v>
+        <v>10381</v>
       </c>
     </row>
     <row r="804" spans="1:19" x14ac:dyDescent="0.2">
@@ -32881,13 +32881,13 @@
         <v>44593</v>
       </c>
       <c r="B804" s="8">
-        <v>10149</v>
+        <v>10344</v>
       </c>
       <c r="C804" s="8">
-        <v>6789</v>
+        <v>6820</v>
       </c>
       <c r="D804" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E804" s="8">
         <v>28</v>
@@ -32896,13 +32896,13 @@
         <v>4</v>
       </c>
       <c r="G804" s="8">
-        <v>17002</v>
+        <v>17230</v>
       </c>
       <c r="H804" s="8">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="I804" s="8">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="J804" s="8">
         <v>0</v>
@@ -32914,16 +32914,16 @@
         <v>0</v>
       </c>
       <c r="M804" s="8">
-        <v>1248</v>
+        <v>1264</v>
       </c>
       <c r="N804" s="8">
-        <v>10249</v>
+        <v>10456</v>
       </c>
       <c r="O804" s="8">
-        <v>7937</v>
+        <v>7972</v>
       </c>
       <c r="P804" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q804" s="8">
         <v>28</v>
@@ -32932,7 +32932,125 @@
         <v>4</v>
       </c>
       <c r="S804" s="8">
-        <v>18250</v>
+        <v>18494</v>
+      </c>
+    </row>
+    <row r="805" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A805" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B805" s="8">
+        <v>11313</v>
+      </c>
+      <c r="C805" s="8">
+        <v>4871</v>
+      </c>
+      <c r="D805" s="8">
+        <v>19</v>
+      </c>
+      <c r="E805" s="8">
+        <v>79</v>
+      </c>
+      <c r="F805" s="8">
+        <v>3</v>
+      </c>
+      <c r="G805" s="8">
+        <v>16285</v>
+      </c>
+      <c r="H805" s="8">
+        <v>94</v>
+      </c>
+      <c r="I805" s="8">
+        <v>151</v>
+      </c>
+      <c r="J805" s="8">
+        <v>0</v>
+      </c>
+      <c r="K805" s="8">
+        <v>8</v>
+      </c>
+      <c r="L805" s="8">
+        <v>0</v>
+      </c>
+      <c r="M805" s="8">
+        <v>253</v>
+      </c>
+      <c r="N805" s="8">
+        <v>11407</v>
+      </c>
+      <c r="O805" s="8">
+        <v>5022</v>
+      </c>
+      <c r="P805" s="8">
+        <v>19</v>
+      </c>
+      <c r="Q805" s="8">
+        <v>87</v>
+      </c>
+      <c r="R805" s="8">
+        <v>3</v>
+      </c>
+      <c r="S805" s="8">
+        <v>16538</v>
+      </c>
+    </row>
+    <row r="806" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A806" s="9">
+        <v>44652</v>
+      </c>
+      <c r="B806" s="8">
+        <v>8845</v>
+      </c>
+      <c r="C806" s="8">
+        <v>5013</v>
+      </c>
+      <c r="D806" s="8">
+        <v>27</v>
+      </c>
+      <c r="E806" s="8">
+        <v>20</v>
+      </c>
+      <c r="F806" s="8">
+        <v>6</v>
+      </c>
+      <c r="G806" s="8">
+        <v>13911</v>
+      </c>
+      <c r="H806" s="8">
+        <v>61</v>
+      </c>
+      <c r="I806" s="8">
+        <v>54</v>
+      </c>
+      <c r="J806" s="8">
+        <v>0</v>
+      </c>
+      <c r="K806" s="8">
+        <v>0</v>
+      </c>
+      <c r="L806" s="8">
+        <v>0</v>
+      </c>
+      <c r="M806" s="8">
+        <v>115</v>
+      </c>
+      <c r="N806" s="8">
+        <v>8906</v>
+      </c>
+      <c r="O806" s="8">
+        <v>5067</v>
+      </c>
+      <c r="P806" s="8">
+        <v>27</v>
+      </c>
+      <c r="Q806" s="8">
+        <v>20</v>
+      </c>
+      <c r="R806" s="8">
+        <v>6</v>
+      </c>
+      <c r="S806" s="8">
+        <v>14026</v>
       </c>
     </row>
   </sheetData>
